--- a/data/output/FV2504_FV2410/UTILMD/55169.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55169.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23255" uniqueCount="1292">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23276" uniqueCount="1292">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -4152,6 +4152,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U1462" totalsRowShown="0">
+  <autoFilter ref="A1:U1462"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4441,7 +4471,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U1462"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -63820,5 +63853,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55169.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55169.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27841" uniqueCount="2732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27723" uniqueCount="2732">
   <si>
     <t>#</t>
   </si>
@@ -15687,46 +15687,44 @@
       </c>
     </row>
     <row r="134" spans="1:22">
-      <c r="A134" s="5" t="s">
+      <c r="A134" s="2" t="s">
         <v>1415</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C134" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
-      <c r="H134" s="5"/>
-      <c r="I134" s="5"/>
-      <c r="J134" s="5" t="s">
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="K134" s="5" t="s">
+      <c r="K134" s="2" t="s">
         <v>1081</v>
       </c>
-      <c r="L134" s="7" t="s">
-        <v>1169</v>
-      </c>
-      <c r="M134" s="5" t="s">
+      <c r="L134" s="4"/>
+      <c r="M134" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N134" s="5" t="s">
+      <c r="N134" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="O134" s="5"/>
-      <c r="P134" s="5"/>
-      <c r="Q134" s="5"/>
-      <c r="R134" s="5"/>
-      <c r="S134" s="5"/>
-      <c r="T134" s="5"/>
-      <c r="U134" s="5" t="s">
+      <c r="O134" s="2"/>
+      <c r="P134" s="2"/>
+      <c r="Q134" s="2"/>
+      <c r="R134" s="2"/>
+      <c r="S134" s="2"/>
+      <c r="T134" s="2"/>
+      <c r="U134" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="V134" s="5" t="s">
+      <c r="V134" s="2" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -16007,44 +16005,42 @@
       </c>
     </row>
     <row r="140" spans="1:22">
-      <c r="A140" s="5" t="s">
+      <c r="A140" s="2" t="s">
         <v>1420</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C140" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
-      <c r="H140" s="5"/>
-      <c r="I140" s="5"/>
-      <c r="J140" s="5" t="s">
+      <c r="C140" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="K140" s="5"/>
-      <c r="L140" s="7" t="s">
-        <v>1169</v>
-      </c>
-      <c r="M140" s="5" t="s">
+      <c r="K140" s="2"/>
+      <c r="L140" s="4"/>
+      <c r="M140" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N140" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O140" s="5"/>
-      <c r="P140" s="5"/>
-      <c r="Q140" s="5"/>
-      <c r="R140" s="5"/>
-      <c r="S140" s="5"/>
-      <c r="T140" s="5"/>
-      <c r="U140" s="5" t="s">
+      <c r="N140" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O140" s="2"/>
+      <c r="P140" s="2"/>
+      <c r="Q140" s="2"/>
+      <c r="R140" s="2"/>
+      <c r="S140" s="2"/>
+      <c r="T140" s="2"/>
+      <c r="U140" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="V140" s="5"/>
+      <c r="V140" s="2"/>
     </row>
     <row r="141" spans="1:22">
       <c r="A141" s="5" t="s">
@@ -16242,9 +16238,7 @@
         <v>915</v>
       </c>
       <c r="K144" s="5"/>
-      <c r="L144" s="7" t="s">
-        <v>1169</v>
-      </c>
+      <c r="L144" s="4"/>
       <c r="M144" s="5" t="s">
         <v>51</v>
       </c>
@@ -16271,44 +16265,42 @@
       <c r="V144" s="5"/>
     </row>
     <row r="145" spans="1:22">
-      <c r="A145" s="5" t="s">
+      <c r="A145" s="2" t="s">
         <v>1425</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B145" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C145" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
-      <c r="I145" s="5"/>
-      <c r="J145" s="5" t="s">
+      <c r="C145" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="K145" s="5"/>
-      <c r="L145" s="7" t="s">
-        <v>1169</v>
-      </c>
-      <c r="M145" s="5" t="s">
+      <c r="K145" s="2"/>
+      <c r="L145" s="4"/>
+      <c r="M145" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N145" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O145" s="5"/>
-      <c r="P145" s="5"/>
-      <c r="Q145" s="5"/>
-      <c r="R145" s="5"/>
-      <c r="S145" s="5"/>
-      <c r="T145" s="5"/>
-      <c r="U145" s="5" t="s">
+      <c r="N145" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O145" s="2"/>
+      <c r="P145" s="2"/>
+      <c r="Q145" s="2"/>
+      <c r="R145" s="2"/>
+      <c r="S145" s="2"/>
+      <c r="T145" s="2"/>
+      <c r="U145" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="V145" s="5"/>
+      <c r="V145" s="2"/>
     </row>
     <row r="146" spans="1:22">
       <c r="A146" s="5" t="s">
@@ -16670,9 +16662,7 @@
         <v>915</v>
       </c>
       <c r="K152" s="5"/>
-      <c r="L152" s="7" t="s">
-        <v>1169</v>
-      </c>
+      <c r="L152" s="4"/>
       <c r="M152" s="5" t="s">
         <v>53</v>
       </c>
@@ -16726,9 +16716,7 @@
         <v>915</v>
       </c>
       <c r="K153" s="5"/>
-      <c r="L153" s="7" t="s">
-        <v>1169</v>
-      </c>
+      <c r="L153" s="4"/>
       <c r="M153" s="5" t="s">
         <v>53</v>
       </c>
@@ -16755,46 +16743,44 @@
       <c r="V153" s="5"/>
     </row>
     <row r="154" spans="1:22">
-      <c r="A154" s="5" t="s">
+      <c r="A154" s="2" t="s">
         <v>1434</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="C154" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
-      <c r="G154" s="5"/>
-      <c r="H154" s="5"/>
-      <c r="I154" s="5"/>
-      <c r="J154" s="5" t="s">
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="K154" s="5" t="s">
+      <c r="K154" s="2" t="s">
         <v>1082</v>
       </c>
-      <c r="L154" s="7" t="s">
-        <v>1169</v>
-      </c>
-      <c r="M154" s="5" t="s">
+      <c r="L154" s="4"/>
+      <c r="M154" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N154" s="5" t="s">
+      <c r="N154" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="O154" s="5"/>
-      <c r="P154" s="5"/>
-      <c r="Q154" s="5"/>
-      <c r="R154" s="5"/>
-      <c r="S154" s="5"/>
-      <c r="T154" s="5"/>
-      <c r="U154" s="5" t="s">
+      <c r="O154" s="2"/>
+      <c r="P154" s="2"/>
+      <c r="Q154" s="2"/>
+      <c r="R154" s="2"/>
+      <c r="S154" s="2"/>
+      <c r="T154" s="2"/>
+      <c r="U154" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="V154" s="5" t="s">
+      <c r="V154" s="2" t="s">
         <v>1082</v>
       </c>
     </row>
@@ -17299,44 +17285,42 @@
       <c r="V163" s="5"/>
     </row>
     <row r="164" spans="1:22">
-      <c r="A164" s="5" t="s">
+      <c r="A164" s="2" t="s">
         <v>1444</v>
       </c>
-      <c r="B164" s="5" t="s">
+      <c r="B164" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C164" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
-      <c r="F164" s="5"/>
-      <c r="G164" s="5"/>
-      <c r="H164" s="5"/>
-      <c r="I164" s="5"/>
-      <c r="J164" s="5" t="s">
+      <c r="C164" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
+      <c r="J164" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="K164" s="5"/>
-      <c r="L164" s="7" t="s">
-        <v>1169</v>
-      </c>
-      <c r="M164" s="5" t="s">
+      <c r="K164" s="2"/>
+      <c r="L164" s="4"/>
+      <c r="M164" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N164" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O164" s="5"/>
-      <c r="P164" s="5"/>
-      <c r="Q164" s="5"/>
-      <c r="R164" s="5"/>
-      <c r="S164" s="5"/>
-      <c r="T164" s="5"/>
-      <c r="U164" s="5" t="s">
+      <c r="N164" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O164" s="2"/>
+      <c r="P164" s="2"/>
+      <c r="Q164" s="2"/>
+      <c r="R164" s="2"/>
+      <c r="S164" s="2"/>
+      <c r="T164" s="2"/>
+      <c r="U164" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="V164" s="5"/>
+      <c r="V164" s="2"/>
     </row>
     <row r="165" spans="1:22">
       <c r="A165" s="5" t="s">
@@ -17555,44 +17539,42 @@
       <c r="V168" s="5"/>
     </row>
     <row r="169" spans="1:22">
-      <c r="A169" s="5" t="s">
+      <c r="A169" s="2" t="s">
         <v>1449</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="B169" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C169" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D169" s="5"/>
-      <c r="E169" s="5"/>
-      <c r="F169" s="5"/>
-      <c r="G169" s="5"/>
-      <c r="H169" s="5"/>
-      <c r="I169" s="5"/>
-      <c r="J169" s="5" t="s">
+      <c r="C169" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="K169" s="5"/>
-      <c r="L169" s="7" t="s">
-        <v>1169</v>
-      </c>
-      <c r="M169" s="5" t="s">
+      <c r="K169" s="2"/>
+      <c r="L169" s="4"/>
+      <c r="M169" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N169" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O169" s="5"/>
-      <c r="P169" s="5"/>
-      <c r="Q169" s="5"/>
-      <c r="R169" s="5"/>
-      <c r="S169" s="5"/>
-      <c r="T169" s="5"/>
-      <c r="U169" s="5" t="s">
+      <c r="N169" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O169" s="2"/>
+      <c r="P169" s="2"/>
+      <c r="Q169" s="2"/>
+      <c r="R169" s="2"/>
+      <c r="S169" s="2"/>
+      <c r="T169" s="2"/>
+      <c r="U169" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="V169" s="5"/>
+      <c r="V169" s="2"/>
     </row>
     <row r="170" spans="1:22">
       <c r="A170" s="5" t="s">
@@ -17838,9 +17820,7 @@
         <v>947</v>
       </c>
       <c r="K174" s="5"/>
-      <c r="L174" s="7" t="s">
-        <v>1169</v>
-      </c>
+      <c r="L174" s="4"/>
       <c r="M174" s="5" t="s">
         <v>57</v>
       </c>
@@ -17867,46 +17847,44 @@
       <c r="V174" s="5"/>
     </row>
     <row r="175" spans="1:22">
-      <c r="A175" s="5" t="s">
+      <c r="A175" s="2" t="s">
         <v>1455</v>
       </c>
-      <c r="B175" s="5" t="s">
+      <c r="B175" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C175" s="5" t="s">
+      <c r="C175" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D175" s="5"/>
-      <c r="E175" s="5"/>
-      <c r="F175" s="5"/>
-      <c r="G175" s="5"/>
-      <c r="H175" s="5"/>
-      <c r="I175" s="5"/>
-      <c r="J175" s="5" t="s">
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="K175" s="5" t="s">
+      <c r="K175" s="2" t="s">
         <v>1082</v>
       </c>
-      <c r="L175" s="7" t="s">
-        <v>1169</v>
-      </c>
-      <c r="M175" s="5" t="s">
+      <c r="L175" s="4"/>
+      <c r="M175" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N175" s="5" t="s">
+      <c r="N175" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="O175" s="5"/>
-      <c r="P175" s="5"/>
-      <c r="Q175" s="5"/>
-      <c r="R175" s="5"/>
-      <c r="S175" s="5"/>
-      <c r="T175" s="5"/>
-      <c r="U175" s="5" t="s">
+      <c r="O175" s="2"/>
+      <c r="P175" s="2"/>
+      <c r="Q175" s="2"/>
+      <c r="R175" s="2"/>
+      <c r="S175" s="2"/>
+      <c r="T175" s="2"/>
+      <c r="U175" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="V175" s="5" t="s">
+      <c r="V175" s="2" t="s">
         <v>1082</v>
       </c>
     </row>
@@ -18415,46 +18393,44 @@
       <c r="V184" s="5"/>
     </row>
     <row r="185" spans="1:22">
-      <c r="A185" s="5" t="s">
+      <c r="A185" s="2" t="s">
         <v>1465</v>
       </c>
-      <c r="B185" s="5" t="s">
+      <c r="B185" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C185" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D185" s="5"/>
-      <c r="E185" s="5"/>
-      <c r="F185" s="5"/>
-      <c r="G185" s="5"/>
-      <c r="H185" s="5"/>
-      <c r="I185" s="5"/>
-      <c r="J185" s="5" t="s">
+      <c r="C185" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
+      <c r="J185" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="K185" s="5" t="s">
+      <c r="K185" s="2" t="s">
         <v>1084</v>
       </c>
-      <c r="L185" s="7" t="s">
-        <v>1169</v>
-      </c>
-      <c r="M185" s="5" t="s">
+      <c r="L185" s="4"/>
+      <c r="M185" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N185" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O185" s="5"/>
-      <c r="P185" s="5"/>
-      <c r="Q185" s="5"/>
-      <c r="R185" s="5"/>
-      <c r="S185" s="5"/>
-      <c r="T185" s="5"/>
-      <c r="U185" s="5" t="s">
+      <c r="N185" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O185" s="2"/>
+      <c r="P185" s="2"/>
+      <c r="Q185" s="2"/>
+      <c r="R185" s="2"/>
+      <c r="S185" s="2"/>
+      <c r="T185" s="2"/>
+      <c r="U185" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="V185" s="5" t="s">
+      <c r="V185" s="2" t="s">
         <v>1084</v>
       </c>
     </row>
@@ -18623,44 +18599,42 @@
       <c r="V188" s="5"/>
     </row>
     <row r="189" spans="1:22">
-      <c r="A189" s="5" t="s">
+      <c r="A189" s="2" t="s">
         <v>1469</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="B189" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C189" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D189" s="5"/>
-      <c r="E189" s="5"/>
-      <c r="F189" s="5"/>
-      <c r="G189" s="5"/>
-      <c r="H189" s="5"/>
-      <c r="I189" s="5"/>
-      <c r="J189" s="5" t="s">
+      <c r="C189" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+      <c r="G189" s="2"/>
+      <c r="H189" s="2"/>
+      <c r="I189" s="2"/>
+      <c r="J189" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="K189" s="5"/>
-      <c r="L189" s="7" t="s">
-        <v>1169</v>
-      </c>
-      <c r="M189" s="5" t="s">
+      <c r="K189" s="2"/>
+      <c r="L189" s="4"/>
+      <c r="M189" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="N189" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O189" s="5"/>
-      <c r="P189" s="5"/>
-      <c r="Q189" s="5"/>
-      <c r="R189" s="5"/>
-      <c r="S189" s="5"/>
-      <c r="T189" s="5"/>
-      <c r="U189" s="5" t="s">
+      <c r="N189" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O189" s="2"/>
+      <c r="P189" s="2"/>
+      <c r="Q189" s="2"/>
+      <c r="R189" s="2"/>
+      <c r="S189" s="2"/>
+      <c r="T189" s="2"/>
+      <c r="U189" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="V189" s="5"/>
+      <c r="V189" s="2"/>
     </row>
     <row r="190" spans="1:22">
       <c r="A190" s="5" t="s">
@@ -18906,9 +18880,7 @@
         <v>915</v>
       </c>
       <c r="K194" s="5"/>
-      <c r="L194" s="7" t="s">
-        <v>1169</v>
-      </c>
+      <c r="L194" s="4"/>
       <c r="M194" s="5" t="s">
         <v>61</v>
       </c>
@@ -18991,44 +18963,42 @@
       <c r="V195" s="5"/>
     </row>
     <row r="196" spans="1:22">
-      <c r="A196" s="5" t="s">
+      <c r="A196" s="2" t="s">
         <v>1476</v>
       </c>
-      <c r="B196" s="5" t="s">
+      <c r="B196" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C196" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D196" s="5"/>
-      <c r="E196" s="5"/>
-      <c r="F196" s="5"/>
-      <c r="G196" s="5"/>
-      <c r="H196" s="5"/>
-      <c r="I196" s="5"/>
-      <c r="J196" s="5" t="s">
+      <c r="C196" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="2"/>
+      <c r="J196" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="K196" s="5"/>
-      <c r="L196" s="7" t="s">
-        <v>1169</v>
-      </c>
-      <c r="M196" s="5" t="s">
+      <c r="K196" s="2"/>
+      <c r="L196" s="4"/>
+      <c r="M196" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N196" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O196" s="5"/>
-      <c r="P196" s="5"/>
-      <c r="Q196" s="5"/>
-      <c r="R196" s="5"/>
-      <c r="S196" s="5"/>
-      <c r="T196" s="5"/>
-      <c r="U196" s="5" t="s">
+      <c r="N196" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O196" s="2"/>
+      <c r="P196" s="2"/>
+      <c r="Q196" s="2"/>
+      <c r="R196" s="2"/>
+      <c r="S196" s="2"/>
+      <c r="T196" s="2"/>
+      <c r="U196" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="V196" s="5"/>
+      <c r="V196" s="2"/>
     </row>
     <row r="197" spans="1:22">
       <c r="A197" s="5" t="s">
@@ -19166,9 +19136,7 @@
         <v>919</v>
       </c>
       <c r="K199" s="5"/>
-      <c r="L199" s="7" t="s">
-        <v>1169</v>
-      </c>
+      <c r="L199" s="4"/>
       <c r="M199" s="5" t="s">
         <v>62</v>
       </c>
@@ -19195,46 +19163,44 @@
       <c r="V199" s="5"/>
     </row>
     <row r="200" spans="1:22">
-      <c r="A200" s="5" t="s">
+      <c r="A200" s="2" t="s">
         <v>1480</v>
       </c>
-      <c r="B200" s="5" t="s">
+      <c r="B200" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C200" s="5" t="s">
+      <c r="C200" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D200" s="5"/>
-      <c r="E200" s="5"/>
-      <c r="F200" s="5"/>
-      <c r="G200" s="5"/>
-      <c r="H200" s="5"/>
-      <c r="I200" s="5"/>
-      <c r="J200" s="5" t="s">
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
+      <c r="J200" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="K200" s="5" t="s">
+      <c r="K200" s="2" t="s">
         <v>1085</v>
       </c>
-      <c r="L200" s="7" t="s">
-        <v>1169</v>
-      </c>
-      <c r="M200" s="5" t="s">
+      <c r="L200" s="4"/>
+      <c r="M200" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N200" s="5" t="s">
+      <c r="N200" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="O200" s="5"/>
-      <c r="P200" s="5"/>
-      <c r="Q200" s="5"/>
-      <c r="R200" s="5"/>
-      <c r="S200" s="5"/>
-      <c r="T200" s="5"/>
-      <c r="U200" s="5" t="s">
+      <c r="O200" s="2"/>
+      <c r="P200" s="2"/>
+      <c r="Q200" s="2"/>
+      <c r="R200" s="2"/>
+      <c r="S200" s="2"/>
+      <c r="T200" s="2"/>
+      <c r="U200" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="V200" s="5" t="s">
+      <c r="V200" s="2" t="s">
         <v>1085</v>
       </c>
     </row>
@@ -19515,46 +19481,44 @@
       </c>
     </row>
     <row r="206" spans="1:22">
-      <c r="A206" s="5" t="s">
+      <c r="A206" s="2" t="s">
         <v>1486</v>
       </c>
-      <c r="B206" s="5" t="s">
+      <c r="B206" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C206" s="5" t="s">
+      <c r="C206" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D206" s="5"/>
-      <c r="E206" s="5"/>
-      <c r="F206" s="5"/>
-      <c r="G206" s="5"/>
-      <c r="H206" s="5"/>
-      <c r="I206" s="5"/>
-      <c r="J206" s="5" t="s">
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
+      <c r="H206" s="2"/>
+      <c r="I206" s="2"/>
+      <c r="J206" s="2" t="s">
         <v>951</v>
       </c>
-      <c r="K206" s="5" t="s">
+      <c r="K206" s="2" t="s">
         <v>1086</v>
       </c>
-      <c r="L206" s="7" t="s">
-        <v>1169</v>
-      </c>
-      <c r="M206" s="5" t="s">
+      <c r="L206" s="4"/>
+      <c r="M206" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N206" s="5" t="s">
+      <c r="N206" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="O206" s="5"/>
-      <c r="P206" s="5"/>
-      <c r="Q206" s="5"/>
-      <c r="R206" s="5"/>
-      <c r="S206" s="5"/>
-      <c r="T206" s="5"/>
-      <c r="U206" s="5" t="s">
+      <c r="O206" s="2"/>
+      <c r="P206" s="2"/>
+      <c r="Q206" s="2"/>
+      <c r="R206" s="2"/>
+      <c r="S206" s="2"/>
+      <c r="T206" s="2"/>
+      <c r="U206" s="2" t="s">
         <v>951</v>
       </c>
-      <c r="V206" s="5" t="s">
+      <c r="V206" s="2" t="s">
         <v>1086</v>
       </c>
     </row>
@@ -19694,9 +19658,7 @@
         <v>915</v>
       </c>
       <c r="K209" s="5"/>
-      <c r="L209" s="7" t="s">
-        <v>1169</v>
-      </c>
+      <c r="L209" s="4"/>
       <c r="M209" s="5" t="s">
         <v>65</v>
       </c>
@@ -19872,9 +19834,7 @@
       <c r="K212" s="5" t="s">
         <v>1088</v>
       </c>
-      <c r="L212" s="7" t="s">
-        <v>1169</v>
-      </c>
+      <c r="L212" s="4"/>
       <c r="M212" s="5" t="s">
         <v>65</v>
       </c>
@@ -19903,46 +19863,44 @@
       </c>
     </row>
     <row r="213" spans="1:22">
-      <c r="A213" s="5" t="s">
+      <c r="A213" s="2" t="s">
         <v>1493</v>
       </c>
-      <c r="B213" s="5" t="s">
+      <c r="B213" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C213" s="5" t="s">
+      <c r="C213" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D213" s="5"/>
-      <c r="E213" s="5"/>
-      <c r="F213" s="5"/>
-      <c r="G213" s="5"/>
-      <c r="H213" s="5"/>
-      <c r="I213" s="5"/>
-      <c r="J213" s="5" t="s">
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
+      <c r="H213" s="2"/>
+      <c r="I213" s="2"/>
+      <c r="J213" s="2" t="s">
         <v>955</v>
       </c>
-      <c r="K213" s="5" t="s">
+      <c r="K213" s="2" t="s">
         <v>1089</v>
       </c>
-      <c r="L213" s="7" t="s">
-        <v>1169</v>
-      </c>
-      <c r="M213" s="5" t="s">
+      <c r="L213" s="4"/>
+      <c r="M213" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N213" s="5" t="s">
+      <c r="N213" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="O213" s="5"/>
-      <c r="P213" s="5"/>
-      <c r="Q213" s="5"/>
-      <c r="R213" s="5"/>
-      <c r="S213" s="5"/>
-      <c r="T213" s="5"/>
-      <c r="U213" s="5" t="s">
+      <c r="O213" s="2"/>
+      <c r="P213" s="2"/>
+      <c r="Q213" s="2"/>
+      <c r="R213" s="2"/>
+      <c r="S213" s="2"/>
+      <c r="T213" s="2"/>
+      <c r="U213" s="2" t="s">
         <v>955</v>
       </c>
-      <c r="V213" s="5" t="s">
+      <c r="V213" s="2" t="s">
         <v>1089</v>
       </c>
     </row>
@@ -20175,44 +20133,42 @@
       <c r="V217" s="5"/>
     </row>
     <row r="218" spans="1:22">
-      <c r="A218" s="5" t="s">
+      <c r="A218" s="2" t="s">
         <v>1498</v>
       </c>
-      <c r="B218" s="5" t="s">
+      <c r="B218" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C218" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D218" s="5"/>
-      <c r="E218" s="5"/>
-      <c r="F218" s="5"/>
-      <c r="G218" s="5"/>
-      <c r="H218" s="5"/>
-      <c r="I218" s="5"/>
-      <c r="J218" s="5" t="s">
+      <c r="C218" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
+      <c r="H218" s="2"/>
+      <c r="I218" s="2"/>
+      <c r="J218" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="K218" s="5"/>
-      <c r="L218" s="7" t="s">
-        <v>1169</v>
-      </c>
-      <c r="M218" s="5" t="s">
+      <c r="K218" s="2"/>
+      <c r="L218" s="4"/>
+      <c r="M218" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N218" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O218" s="5"/>
-      <c r="P218" s="5"/>
-      <c r="Q218" s="5"/>
-      <c r="R218" s="5"/>
-      <c r="S218" s="5"/>
-      <c r="T218" s="5"/>
-      <c r="U218" s="5" t="s">
+      <c r="N218" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O218" s="2"/>
+      <c r="P218" s="2"/>
+      <c r="Q218" s="2"/>
+      <c r="R218" s="2"/>
+      <c r="S218" s="2"/>
+      <c r="T218" s="2"/>
+      <c r="U218" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="V218" s="5"/>
+      <c r="V218" s="2"/>
     </row>
     <row r="219" spans="1:22">
       <c r="A219" s="5" t="s">
@@ -20410,9 +20366,7 @@
         <v>915</v>
       </c>
       <c r="K222" s="5"/>
-      <c r="L222" s="7" t="s">
-        <v>1169</v>
-      </c>
+      <c r="L222" s="4"/>
       <c r="M222" s="5" t="s">
         <v>67</v>
       </c>
@@ -20439,44 +20393,42 @@
       <c r="V222" s="5"/>
     </row>
     <row r="223" spans="1:22">
-      <c r="A223" s="5" t="s">
+      <c r="A223" s="2" t="s">
         <v>1503</v>
       </c>
-      <c r="B223" s="5" t="s">
+      <c r="B223" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C223" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D223" s="5"/>
-      <c r="E223" s="5"/>
-      <c r="F223" s="5"/>
-      <c r="G223" s="5"/>
-      <c r="H223" s="5"/>
-      <c r="I223" s="5"/>
-      <c r="J223" s="5" t="s">
+      <c r="C223" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="2"/>
+      <c r="G223" s="2"/>
+      <c r="H223" s="2"/>
+      <c r="I223" s="2"/>
+      <c r="J223" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="K223" s="5"/>
-      <c r="L223" s="7" t="s">
-        <v>1169</v>
-      </c>
-      <c r="M223" s="5" t="s">
+      <c r="K223" s="2"/>
+      <c r="L223" s="4"/>
+      <c r="M223" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N223" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O223" s="5"/>
-      <c r="P223" s="5"/>
-      <c r="Q223" s="5"/>
-      <c r="R223" s="5"/>
-      <c r="S223" s="5"/>
-      <c r="T223" s="5"/>
-      <c r="U223" s="5" t="s">
+      <c r="N223" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O223" s="2"/>
+      <c r="P223" s="2"/>
+      <c r="Q223" s="2"/>
+      <c r="R223" s="2"/>
+      <c r="S223" s="2"/>
+      <c r="T223" s="2"/>
+      <c r="U223" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="V223" s="5"/>
+      <c r="V223" s="2"/>
     </row>
     <row r="224" spans="1:22">
       <c r="A224" s="5" t="s">
@@ -21379,44 +21331,42 @@
       <c r="V239" s="5"/>
     </row>
     <row r="240" spans="1:22">
-      <c r="A240" s="5" t="s">
+      <c r="A240" s="2" t="s">
         <v>1520</v>
       </c>
-      <c r="B240" s="5" t="s">
+      <c r="B240" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C240" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D240" s="5"/>
-      <c r="E240" s="5"/>
-      <c r="F240" s="5"/>
-      <c r="G240" s="5"/>
-      <c r="H240" s="5"/>
-      <c r="I240" s="5"/>
-      <c r="J240" s="5" t="s">
+      <c r="C240" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2"/>
+      <c r="F240" s="2"/>
+      <c r="G240" s="2"/>
+      <c r="H240" s="2"/>
+      <c r="I240" s="2"/>
+      <c r="J240" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="K240" s="5"/>
-      <c r="L240" s="7" t="s">
-        <v>1169</v>
-      </c>
-      <c r="M240" s="5" t="s">
+      <c r="K240" s="2"/>
+      <c r="L240" s="4"/>
+      <c r="M240" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N240" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O240" s="5"/>
-      <c r="P240" s="5"/>
-      <c r="Q240" s="5"/>
-      <c r="R240" s="5"/>
-      <c r="S240" s="5"/>
-      <c r="T240" s="5"/>
-      <c r="U240" s="5" t="s">
+      <c r="N240" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O240" s="2"/>
+      <c r="P240" s="2"/>
+      <c r="Q240" s="2"/>
+      <c r="R240" s="2"/>
+      <c r="S240" s="2"/>
+      <c r="T240" s="2"/>
+      <c r="U240" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="V240" s="5"/>
+      <c r="V240" s="2"/>
     </row>
     <row r="241" spans="1:22">
       <c r="A241" s="5" t="s">
@@ -21662,9 +21612,7 @@
         <v>915</v>
       </c>
       <c r="K245" s="5"/>
-      <c r="L245" s="7" t="s">
-        <v>1169</v>
-      </c>
+      <c r="L245" s="4"/>
       <c r="M245" s="5" t="s">
         <v>70</v>
       </c>
@@ -21718,9 +21666,7 @@
         <v>915</v>
       </c>
       <c r="K246" s="5"/>
-      <c r="L246" s="7" t="s">
-        <v>1169</v>
-      </c>
+      <c r="L246" s="4"/>
       <c r="M246" s="5" t="s">
         <v>70</v>
       </c>
@@ -21774,9 +21720,7 @@
         <v>915</v>
       </c>
       <c r="K247" s="5"/>
-      <c r="L247" s="7" t="s">
-        <v>1169</v>
-      </c>
+      <c r="L247" s="4"/>
       <c r="M247" s="5" t="s">
         <v>70</v>
       </c>
@@ -21803,44 +21747,42 @@
       <c r="V247" s="5"/>
     </row>
     <row r="248" spans="1:22">
-      <c r="A248" s="5" t="s">
+      <c r="A248" s="2" t="s">
         <v>1528</v>
       </c>
-      <c r="B248" s="5" t="s">
+      <c r="B248" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C248" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D248" s="5"/>
-      <c r="E248" s="5"/>
-      <c r="F248" s="5"/>
-      <c r="G248" s="5"/>
-      <c r="H248" s="5"/>
-      <c r="I248" s="5"/>
-      <c r="J248" s="5" t="s">
+      <c r="C248" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D248" s="2"/>
+      <c r="E248" s="2"/>
+      <c r="F248" s="2"/>
+      <c r="G248" s="2"/>
+      <c r="H248" s="2"/>
+      <c r="I248" s="2"/>
+      <c r="J248" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="K248" s="5"/>
-      <c r="L248" s="7" t="s">
-        <v>1169</v>
-      </c>
-      <c r="M248" s="5" t="s">
+      <c r="K248" s="2"/>
+      <c r="L248" s="4"/>
+      <c r="M248" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N248" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O248" s="5"/>
-      <c r="P248" s="5"/>
-      <c r="Q248" s="5"/>
-      <c r="R248" s="5"/>
-      <c r="S248" s="5"/>
-      <c r="T248" s="5"/>
-      <c r="U248" s="5" t="s">
+      <c r="N248" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O248" s="2"/>
+      <c r="P248" s="2"/>
+      <c r="Q248" s="2"/>
+      <c r="R248" s="2"/>
+      <c r="S248" s="2"/>
+      <c r="T248" s="2"/>
+      <c r="U248" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="V248" s="5"/>
+      <c r="V248" s="2"/>
     </row>
     <row r="249" spans="1:22">
       <c r="A249" s="5" t="s">
@@ -22086,9 +22028,7 @@
         <v>915</v>
       </c>
       <c r="K253" s="5"/>
-      <c r="L253" s="7" t="s">
-        <v>1169</v>
-      </c>
+      <c r="L253" s="4"/>
       <c r="M253" s="5" t="s">
         <v>71</v>
       </c>
@@ -22115,44 +22055,42 @@
       <c r="V253" s="5"/>
     </row>
     <row r="254" spans="1:22">
-      <c r="A254" s="5" t="s">
+      <c r="A254" s="2" t="s">
         <v>1534</v>
       </c>
-      <c r="B254" s="5" t="s">
+      <c r="B254" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C254" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D254" s="5"/>
-      <c r="E254" s="5"/>
-      <c r="F254" s="5"/>
-      <c r="G254" s="5"/>
-      <c r="H254" s="5"/>
-      <c r="I254" s="5"/>
-      <c r="J254" s="5" t="s">
+      <c r="C254" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D254" s="2"/>
+      <c r="E254" s="2"/>
+      <c r="F254" s="2"/>
+      <c r="G254" s="2"/>
+      <c r="H254" s="2"/>
+      <c r="I254" s="2"/>
+      <c r="J254" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="K254" s="5"/>
-      <c r="L254" s="7" t="s">
-        <v>1169</v>
-      </c>
-      <c r="M254" s="5" t="s">
+      <c r="K254" s="2"/>
+      <c r="L254" s="4"/>
+      <c r="M254" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N254" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O254" s="5"/>
-      <c r="P254" s="5"/>
-      <c r="Q254" s="5"/>
-      <c r="R254" s="5"/>
-      <c r="S254" s="5"/>
-      <c r="T254" s="5"/>
-      <c r="U254" s="5" t="s">
+      <c r="N254" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O254" s="2"/>
+      <c r="P254" s="2"/>
+      <c r="Q254" s="2"/>
+      <c r="R254" s="2"/>
+      <c r="S254" s="2"/>
+      <c r="T254" s="2"/>
+      <c r="U254" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="V254" s="5"/>
+      <c r="V254" s="2"/>
     </row>
     <row r="255" spans="1:22">
       <c r="A255" s="5" t="s">
@@ -22350,9 +22288,7 @@
         <v>915</v>
       </c>
       <c r="K258" s="5"/>
-      <c r="L258" s="7" t="s">
-        <v>1169</v>
-      </c>
+      <c r="L258" s="4"/>
       <c r="M258" s="5" t="s">
         <v>72</v>
       </c>
@@ -22379,44 +22315,42 @@
       <c r="V258" s="5"/>
     </row>
     <row r="259" spans="1:22">
-      <c r="A259" s="5" t="s">
+      <c r="A259" s="2" t="s">
         <v>1539</v>
       </c>
-      <c r="B259" s="5" t="s">
+      <c r="B259" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C259" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D259" s="5"/>
-      <c r="E259" s="5"/>
-      <c r="F259" s="5"/>
-      <c r="G259" s="5"/>
-      <c r="H259" s="5"/>
-      <c r="I259" s="5"/>
-      <c r="J259" s="5" t="s">
+      <c r="C259" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D259" s="2"/>
+      <c r="E259" s="2"/>
+      <c r="F259" s="2"/>
+      <c r="G259" s="2"/>
+      <c r="H259" s="2"/>
+      <c r="I259" s="2"/>
+      <c r="J259" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="K259" s="5"/>
-      <c r="L259" s="7" t="s">
-        <v>1169</v>
-      </c>
-      <c r="M259" s="5" t="s">
+      <c r="K259" s="2"/>
+      <c r="L259" s="4"/>
+      <c r="M259" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="N259" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O259" s="5"/>
-      <c r="P259" s="5"/>
-      <c r="Q259" s="5"/>
-      <c r="R259" s="5"/>
-      <c r="S259" s="5"/>
-      <c r="T259" s="5"/>
-      <c r="U259" s="5" t="s">
+      <c r="N259" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O259" s="2"/>
+      <c r="P259" s="2"/>
+      <c r="Q259" s="2"/>
+      <c r="R259" s="2"/>
+      <c r="S259" s="2"/>
+      <c r="T259" s="2"/>
+      <c r="U259" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="V259" s="5"/>
+      <c r="V259" s="2"/>
     </row>
     <row r="260" spans="1:22">
       <c r="A260" s="5" t="s">
@@ -22554,9 +22488,7 @@
         <v>915</v>
       </c>
       <c r="K262" s="5"/>
-      <c r="L262" s="7" t="s">
-        <v>1169</v>
-      </c>
+      <c r="L262" s="4"/>
       <c r="M262" s="5" t="s">
         <v>73</v>
       </c>
@@ -22722,9 +22654,7 @@
         <v>919</v>
       </c>
       <c r="K265" s="5"/>
-      <c r="L265" s="7" t="s">
-        <v>1169</v>
-      </c>
+      <c r="L265" s="4"/>
       <c r="M265" s="5" t="s">
         <v>74</v>
       </c>
@@ -22778,9 +22708,7 @@
         <v>919</v>
       </c>
       <c r="K266" s="5"/>
-      <c r="L266" s="7" t="s">
-        <v>1169</v>
-      </c>
+      <c r="L266" s="4"/>
       <c r="M266" s="5" t="s">
         <v>74</v>
       </c>
@@ -22807,46 +22735,44 @@
       <c r="V266" s="5"/>
     </row>
     <row r="267" spans="1:22">
-      <c r="A267" s="5" t="s">
+      <c r="A267" s="2" t="s">
         <v>1546</v>
       </c>
-      <c r="B267" s="5" t="s">
+      <c r="B267" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C267" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D267" s="5"/>
-      <c r="E267" s="5"/>
-      <c r="F267" s="5"/>
-      <c r="G267" s="5"/>
-      <c r="H267" s="5"/>
-      <c r="I267" s="5"/>
-      <c r="J267" s="5" t="s">
+      <c r="C267" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D267" s="2"/>
+      <c r="E267" s="2"/>
+      <c r="F267" s="2"/>
+      <c r="G267" s="2"/>
+      <c r="H267" s="2"/>
+      <c r="I267" s="2"/>
+      <c r="J267" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="K267" s="5" t="s">
+      <c r="K267" s="2" t="s">
         <v>1095</v>
       </c>
-      <c r="L267" s="7" t="s">
-        <v>1169</v>
-      </c>
-      <c r="M267" s="5" t="s">
+      <c r="L267" s="4"/>
+      <c r="M267" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="N267" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O267" s="5"/>
-      <c r="P267" s="5"/>
-      <c r="Q267" s="5"/>
-      <c r="R267" s="5"/>
-      <c r="S267" s="5"/>
-      <c r="T267" s="5"/>
-      <c r="U267" s="5" t="s">
+      <c r="N267" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O267" s="2"/>
+      <c r="P267" s="2"/>
+      <c r="Q267" s="2"/>
+      <c r="R267" s="2"/>
+      <c r="S267" s="2"/>
+      <c r="T267" s="2"/>
+      <c r="U267" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="V267" s="5" t="s">
+      <c r="V267" s="2" t="s">
         <v>1095</v>
       </c>
     </row>
@@ -23094,9 +23020,7 @@
         <v>915</v>
       </c>
       <c r="K272" s="5"/>
-      <c r="L272" s="7" t="s">
-        <v>1169</v>
-      </c>
+      <c r="L272" s="4"/>
       <c r="M272" s="5" t="s">
         <v>76</v>
       </c>
@@ -23150,9 +23074,7 @@
         <v>915</v>
       </c>
       <c r="K273" s="5"/>
-      <c r="L273" s="7" t="s">
-        <v>1169</v>
-      </c>
+      <c r="L273" s="4"/>
       <c r="M273" s="5" t="s">
         <v>76</v>
       </c>
@@ -23206,9 +23128,7 @@
         <v>915</v>
       </c>
       <c r="K274" s="5"/>
-      <c r="L274" s="7" t="s">
-        <v>1169</v>
-      </c>
+      <c r="L274" s="4"/>
       <c r="M274" s="5" t="s">
         <v>76</v>
       </c>
@@ -23262,9 +23182,7 @@
         <v>915</v>
       </c>
       <c r="K275" s="5"/>
-      <c r="L275" s="7" t="s">
-        <v>1169</v>
-      </c>
+      <c r="L275" s="4"/>
       <c r="M275" s="5" t="s">
         <v>76</v>
       </c>
@@ -23291,46 +23209,44 @@
       <c r="V275" s="5"/>
     </row>
     <row r="276" spans="1:22">
-      <c r="A276" s="5" t="s">
+      <c r="A276" s="2" t="s">
         <v>1555</v>
       </c>
-      <c r="B276" s="5" t="s">
+      <c r="B276" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C276" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D276" s="5"/>
-      <c r="E276" s="5"/>
-      <c r="F276" s="5"/>
-      <c r="G276" s="5"/>
-      <c r="H276" s="5"/>
-      <c r="I276" s="5"/>
-      <c r="J276" s="5" t="s">
+      <c r="C276" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D276" s="2"/>
+      <c r="E276" s="2"/>
+      <c r="F276" s="2"/>
+      <c r="G276" s="2"/>
+      <c r="H276" s="2"/>
+      <c r="I276" s="2"/>
+      <c r="J276" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="K276" s="5" t="s">
+      <c r="K276" s="2" t="s">
         <v>1096</v>
       </c>
-      <c r="L276" s="7" t="s">
-        <v>1169</v>
-      </c>
-      <c r="M276" s="5" t="s">
+      <c r="L276" s="4"/>
+      <c r="M276" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N276" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O276" s="5"/>
-      <c r="P276" s="5"/>
-      <c r="Q276" s="5"/>
-      <c r="R276" s="5"/>
-      <c r="S276" s="5"/>
-      <c r="T276" s="5"/>
-      <c r="U276" s="5" t="s">
+      <c r="N276" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O276" s="2"/>
+      <c r="P276" s="2"/>
+      <c r="Q276" s="2"/>
+      <c r="R276" s="2"/>
+      <c r="S276" s="2"/>
+      <c r="T276" s="2"/>
+      <c r="U276" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="V276" s="5" t="s">
+      <c r="V276" s="2" t="s">
         <v>1096</v>
       </c>
     </row>
@@ -23530,9 +23446,7 @@
         <v>915</v>
       </c>
       <c r="K280" s="5"/>
-      <c r="L280" s="7" t="s">
-        <v>1169</v>
-      </c>
+      <c r="L280" s="4"/>
       <c r="M280" s="5" t="s">
         <v>77</v>
       </c>
@@ -23559,46 +23473,44 @@
       <c r="V280" s="5"/>
     </row>
     <row r="281" spans="1:22">
-      <c r="A281" s="5" t="s">
+      <c r="A281" s="2" t="s">
         <v>1560</v>
       </c>
-      <c r="B281" s="5" t="s">
+      <c r="B281" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C281" s="5" t="s">
+      <c r="C281" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D281" s="5"/>
-      <c r="E281" s="5"/>
-      <c r="F281" s="5"/>
-      <c r="G281" s="5"/>
-      <c r="H281" s="5"/>
-      <c r="I281" s="5"/>
-      <c r="J281" s="5" t="s">
+      <c r="D281" s="2"/>
+      <c r="E281" s="2"/>
+      <c r="F281" s="2"/>
+      <c r="G281" s="2"/>
+      <c r="H281" s="2"/>
+      <c r="I281" s="2"/>
+      <c r="J281" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="K281" s="5" t="s">
+      <c r="K281" s="2" t="s">
         <v>1097</v>
       </c>
-      <c r="L281" s="7" t="s">
-        <v>1169</v>
-      </c>
-      <c r="M281" s="5" t="s">
+      <c r="L281" s="4"/>
+      <c r="M281" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="N281" s="5" t="s">
+      <c r="N281" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="O281" s="5"/>
-      <c r="P281" s="5"/>
-      <c r="Q281" s="5"/>
-      <c r="R281" s="5"/>
-      <c r="S281" s="5"/>
-      <c r="T281" s="5"/>
-      <c r="U281" s="5" t="s">
+      <c r="O281" s="2"/>
+      <c r="P281" s="2"/>
+      <c r="Q281" s="2"/>
+      <c r="R281" s="2"/>
+      <c r="S281" s="2"/>
+      <c r="T281" s="2"/>
+      <c r="U281" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="V281" s="5" t="s">
+      <c r="V281" s="2" t="s">
         <v>1097</v>
       </c>
     </row>
@@ -24107,46 +24019,44 @@
       <c r="V290" s="5"/>
     </row>
     <row r="291" spans="1:22">
-      <c r="A291" s="5" t="s">
+      <c r="A291" s="2" t="s">
         <v>1570</v>
       </c>
-      <c r="B291" s="5" t="s">
+      <c r="B291" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C291" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D291" s="5"/>
-      <c r="E291" s="5"/>
-      <c r="F291" s="5"/>
-      <c r="G291" s="5"/>
-      <c r="H291" s="5"/>
-      <c r="I291" s="5"/>
-      <c r="J291" s="5" t="s">
+      <c r="C291" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D291" s="2"/>
+      <c r="E291" s="2"/>
+      <c r="F291" s="2"/>
+      <c r="G291" s="2"/>
+      <c r="H291" s="2"/>
+      <c r="I291" s="2"/>
+      <c r="J291" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="K291" s="5" t="s">
+      <c r="K291" s="2" t="s">
         <v>1099</v>
       </c>
-      <c r="L291" s="7" t="s">
-        <v>1169</v>
-      </c>
-      <c r="M291" s="5" t="s">
+      <c r="L291" s="4"/>
+      <c r="M291" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="N291" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O291" s="5"/>
-      <c r="P291" s="5"/>
-      <c r="Q291" s="5"/>
-      <c r="R291" s="5"/>
-      <c r="S291" s="5"/>
-      <c r="T291" s="5"/>
-      <c r="U291" s="5" t="s">
+      <c r="N291" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O291" s="2"/>
+      <c r="P291" s="2"/>
+      <c r="Q291" s="2"/>
+      <c r="R291" s="2"/>
+      <c r="S291" s="2"/>
+      <c r="T291" s="2"/>
+      <c r="U291" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="V291" s="5" t="s">
+      <c r="V291" s="2" t="s">
         <v>1099</v>
       </c>
     </row>
@@ -24288,9 +24198,7 @@
       <c r="K294" s="5" t="s">
         <v>1100</v>
       </c>
-      <c r="L294" s="7" t="s">
-        <v>1169</v>
-      </c>
+      <c r="L294" s="4"/>
       <c r="M294" s="5" t="s">
         <v>79</v>
       </c>
@@ -24379,44 +24287,42 @@
       </c>
     </row>
     <row r="296" spans="1:22">
-      <c r="A296" s="5" t="s">
+      <c r="A296" s="2" t="s">
         <v>1574</v>
       </c>
-      <c r="B296" s="5" t="s">
+      <c r="B296" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C296" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D296" s="5"/>
-      <c r="E296" s="5"/>
-      <c r="F296" s="5"/>
-      <c r="G296" s="5"/>
-      <c r="H296" s="5"/>
-      <c r="I296" s="5"/>
-      <c r="J296" s="5" t="s">
+      <c r="C296" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D296" s="2"/>
+      <c r="E296" s="2"/>
+      <c r="F296" s="2"/>
+      <c r="G296" s="2"/>
+      <c r="H296" s="2"/>
+      <c r="I296" s="2"/>
+      <c r="J296" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="K296" s="5"/>
-      <c r="L296" s="7" t="s">
-        <v>1169</v>
-      </c>
-      <c r="M296" s="5" t="s">
+      <c r="K296" s="2"/>
+      <c r="L296" s="4"/>
+      <c r="M296" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="N296" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O296" s="5"/>
-      <c r="P296" s="5"/>
-      <c r="Q296" s="5"/>
-      <c r="R296" s="5"/>
-      <c r="S296" s="5"/>
-      <c r="T296" s="5"/>
-      <c r="U296" s="5" t="s">
+      <c r="N296" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O296" s="2"/>
+      <c r="P296" s="2"/>
+      <c r="Q296" s="2"/>
+      <c r="R296" s="2"/>
+      <c r="S296" s="2"/>
+      <c r="T296" s="2"/>
+      <c r="U296" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="V296" s="5"/>
+      <c r="V296" s="2"/>
     </row>
     <row r="297" spans="1:22">
       <c r="A297" s="5" t="s">
@@ -24662,9 +24568,7 @@
         <v>969</v>
       </c>
       <c r="K301" s="5"/>
-      <c r="L301" s="7" t="s">
-        <v>1169</v>
-      </c>
+      <c r="L301" s="4"/>
       <c r="M301" s="5" t="s">
         <v>81</v>
       </c>
@@ -24718,9 +24622,7 @@
         <v>970</v>
       </c>
       <c r="K302" s="5"/>
-      <c r="L302" s="7" t="s">
-        <v>1169</v>
-      </c>
+      <c r="L302" s="4"/>
       <c r="M302" s="5" t="s">
         <v>81</v>
       </c>
@@ -24774,9 +24676,7 @@
         <v>971</v>
       </c>
       <c r="K303" s="5"/>
-      <c r="L303" s="7" t="s">
-        <v>1169</v>
-      </c>
+      <c r="L303" s="4"/>
       <c r="M303" s="5" t="s">
         <v>81</v>
       </c>
@@ -25907,46 +25807,44 @@
       <c r="V327" s="5"/>
     </row>
     <row r="328" spans="1:22">
-      <c r="A328" s="5" t="s">
+      <c r="A328" s="2" t="s">
         <v>1605</v>
       </c>
-      <c r="B328" s="5" t="s">
+      <c r="B328" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C328" s="5" t="s">
+      <c r="C328" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D328" s="5"/>
-      <c r="E328" s="5"/>
-      <c r="F328" s="5"/>
-      <c r="G328" s="5"/>
-      <c r="H328" s="5"/>
-      <c r="I328" s="5"/>
-      <c r="J328" s="5" t="s">
+      <c r="D328" s="2"/>
+      <c r="E328" s="2"/>
+      <c r="F328" s="2"/>
+      <c r="G328" s="2"/>
+      <c r="H328" s="2"/>
+      <c r="I328" s="2"/>
+      <c r="J328" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="K328" s="5" t="s">
+      <c r="K328" s="2" t="s">
         <v>1103</v>
       </c>
-      <c r="L328" s="7" t="s">
-        <v>1169</v>
-      </c>
-      <c r="M328" s="5" t="s">
+      <c r="L328" s="4"/>
+      <c r="M328" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="N328" s="5" t="s">
+      <c r="N328" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="O328" s="5"/>
-      <c r="P328" s="5"/>
-      <c r="Q328" s="5"/>
-      <c r="R328" s="5"/>
-      <c r="S328" s="5"/>
-      <c r="T328" s="5"/>
-      <c r="U328" s="5" t="s">
+      <c r="O328" s="2"/>
+      <c r="P328" s="2"/>
+      <c r="Q328" s="2"/>
+      <c r="R328" s="2"/>
+      <c r="S328" s="2"/>
+      <c r="T328" s="2"/>
+      <c r="U328" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="V328" s="5" t="s">
+      <c r="V328" s="2" t="s">
         <v>1103</v>
       </c>
     </row>
@@ -26742,9 +26640,7 @@
         <v>915</v>
       </c>
       <c r="K343" s="5"/>
-      <c r="L343" s="7" t="s">
-        <v>1169</v>
-      </c>
+      <c r="L343" s="4"/>
       <c r="M343" s="5" t="s">
         <v>86</v>
       </c>
@@ -26798,9 +26694,7 @@
         <v>915</v>
       </c>
       <c r="K344" s="5"/>
-      <c r="L344" s="7" t="s">
-        <v>1169</v>
-      </c>
+      <c r="L344" s="4"/>
       <c r="M344" s="5" t="s">
         <v>86</v>
       </c>
@@ -26854,9 +26748,7 @@
         <v>915</v>
       </c>
       <c r="K345" s="5"/>
-      <c r="L345" s="7" t="s">
-        <v>1169</v>
-      </c>
+      <c r="L345" s="4"/>
       <c r="M345" s="5" t="s">
         <v>86</v>
       </c>
@@ -27091,46 +26983,44 @@
       <c r="V349" s="5"/>
     </row>
     <row r="350" spans="1:22">
-      <c r="A350" s="5" t="s">
+      <c r="A350" s="2" t="s">
         <v>1627</v>
       </c>
-      <c r="B350" s="5" t="s">
+      <c r="B350" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C350" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D350" s="5"/>
-      <c r="E350" s="5"/>
-      <c r="F350" s="5"/>
-      <c r="G350" s="5"/>
-      <c r="H350" s="5"/>
-      <c r="I350" s="5"/>
-      <c r="J350" s="5" t="s">
+      <c r="C350" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D350" s="2"/>
+      <c r="E350" s="2"/>
+      <c r="F350" s="2"/>
+      <c r="G350" s="2"/>
+      <c r="H350" s="2"/>
+      <c r="I350" s="2"/>
+      <c r="J350" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="K350" s="5" t="s">
+      <c r="K350" s="2" t="s">
         <v>1107</v>
       </c>
-      <c r="L350" s="7" t="s">
-        <v>1169</v>
-      </c>
-      <c r="M350" s="5" t="s">
+      <c r="L350" s="4"/>
+      <c r="M350" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="N350" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O350" s="5"/>
-      <c r="P350" s="5"/>
-      <c r="Q350" s="5"/>
-      <c r="R350" s="5"/>
-      <c r="S350" s="5"/>
-      <c r="T350" s="5"/>
-      <c r="U350" s="5" t="s">
+      <c r="N350" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O350" s="2"/>
+      <c r="P350" s="2"/>
+      <c r="Q350" s="2"/>
+      <c r="R350" s="2"/>
+      <c r="S350" s="2"/>
+      <c r="T350" s="2"/>
+      <c r="U350" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="V350" s="5" t="s">
+      <c r="V350" s="2" t="s">
         <v>1107</v>
       </c>
     </row>
@@ -27299,44 +27189,42 @@
       <c r="V353" s="5"/>
     </row>
     <row r="354" spans="1:22">
-      <c r="A354" s="5" t="s">
+      <c r="A354" s="2" t="s">
         <v>1631</v>
       </c>
-      <c r="B354" s="5" t="s">
+      <c r="B354" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C354" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D354" s="5"/>
-      <c r="E354" s="5"/>
-      <c r="F354" s="5"/>
-      <c r="G354" s="5"/>
-      <c r="H354" s="5"/>
-      <c r="I354" s="5"/>
-      <c r="J354" s="5" t="s">
+      <c r="C354" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D354" s="2"/>
+      <c r="E354" s="2"/>
+      <c r="F354" s="2"/>
+      <c r="G354" s="2"/>
+      <c r="H354" s="2"/>
+      <c r="I354" s="2"/>
+      <c r="J354" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="K354" s="5"/>
-      <c r="L354" s="7" t="s">
-        <v>1169</v>
-      </c>
-      <c r="M354" s="5" t="s">
+      <c r="K354" s="2"/>
+      <c r="L354" s="4"/>
+      <c r="M354" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="N354" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O354" s="5"/>
-      <c r="P354" s="5"/>
-      <c r="Q354" s="5"/>
-      <c r="R354" s="5"/>
-      <c r="S354" s="5"/>
-      <c r="T354" s="5"/>
-      <c r="U354" s="5" t="s">
+      <c r="N354" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O354" s="2"/>
+      <c r="P354" s="2"/>
+      <c r="Q354" s="2"/>
+      <c r="R354" s="2"/>
+      <c r="S354" s="2"/>
+      <c r="T354" s="2"/>
+      <c r="U354" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="V354" s="5"/>
+      <c r="V354" s="2"/>
     </row>
     <row r="355" spans="1:22">
       <c r="A355" s="5" t="s">
@@ -27582,9 +27470,7 @@
         <v>985</v>
       </c>
       <c r="K359" s="5"/>
-      <c r="L359" s="7" t="s">
-        <v>1169</v>
-      </c>
+      <c r="L359" s="4"/>
       <c r="M359" s="5" t="s">
         <v>57</v>
       </c>
@@ -27638,9 +27524,7 @@
         <v>986</v>
       </c>
       <c r="K360" s="5"/>
-      <c r="L360" s="7" t="s">
-        <v>1169</v>
-      </c>
+      <c r="L360" s="4"/>
       <c r="M360" s="5" t="s">
         <v>57</v>
       </c>
@@ -27694,9 +27578,7 @@
         <v>987</v>
       </c>
       <c r="K361" s="5"/>
-      <c r="L361" s="7" t="s">
-        <v>1169</v>
-      </c>
+      <c r="L361" s="4"/>
       <c r="M361" s="5" t="s">
         <v>57</v>
       </c>
